--- a/data/trans_dic/P16A98-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A98-Habitat-trans_dic.xlsx
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,49</t>
+          <t>1,26; 11,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,58</t>
+          <t>0,0; 20,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,99</t>
+          <t>0,0; 12,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,67</t>
+          <t>0,0; 7,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 9,87</t>
+          <t>0,89; 9,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 1,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,7</t>
+          <t>1,47; 5,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 9,92</t>
+          <t>2,16; 9,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,62</t>
+          <t>0,0; 3,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,67</t>
+          <t>0,16; 1,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,43</t>
+          <t>2,46; 6,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,08</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,26</t>
+          <t>1,4; 4,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,95</t>
+          <t>0,21; 1,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,52</t>
+          <t>3,74; 9,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,41</t>
+          <t>0,28; 2,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,78</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,46</t>
+          <t>2,69; 5,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,58</t>
+          <t>0,35; 1,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,74</t>
+          <t>0,78; 3,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 9,4</t>
+          <t>3,26; 9,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,7</t>
+          <t>0,33; 2,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,45</t>
+          <t>2,35; 5,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,42</t>
+          <t>0,15; 1,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,8</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,56</t>
+          <t>0,82; 3,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,59</t>
+          <t>0,39; 2,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,41</t>
+          <t>2,94; 8,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,4</t>
+          <t>0,87; 4,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,46</t>
+          <t>0,0; 0,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,65</t>
+          <t>1,96; 4,71</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,66</t>
+          <t>0,79; 2,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,37</t>
+          <t>0,04; 0,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,04</t>
+          <t>1,59; 3,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,26</t>
+          <t>0,4; 1,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,77</t>
+          <t>0,08; 0,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,24</t>
+          <t>4,34; 7,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,2</t>
+          <t>0,67; 2,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,44</t>
+          <t>0,08; 0,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,32</t>
+          <t>2,92; 4,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,38</t>
+          <t>0,65; 1,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P16A98-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A98-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 11,55</t>
+          <t>1,28; 12,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,23</t>
+          <t>0,0; 18,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,31</t>
+          <t>0,0; 14,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,39</t>
+          <t>0,0; 7,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,17</t>
+          <t>1,08; 9,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 1,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,97</t>
+          <t>1,45; 5,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,62</t>
+          <t>0,0; 3,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 9,77</t>
+          <t>2,15; 9,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,1</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,64</t>
+          <t>0,19; 1,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,31</t>
+          <t>2,35; 6,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,02</t>
+          <t>1,25; 4,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,86</t>
+          <t>0,21; 1,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,51</t>
+          <t>3,94; 9,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,73</t>
+          <t>0,0; 0,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,36</t>
+          <t>2,74; 5,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,75</t>
+          <t>0,34; 1,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,71</t>
+          <t>1,01; 3,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,3</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,39</t>
+          <t>3,4; 9,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,72</t>
+          <t>0,33; 2,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,27</t>
+          <t>2,25; 5,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,43</t>
+          <t>0,15; 1,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,82</t>
+          <t>0,65; 3,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,45</t>
+          <t>0,38; 2,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,34</t>
+          <t>3,0; 8,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,35</t>
+          <t>0,86; 4,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,51</t>
+          <t>0,0; 0,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,71</t>
+          <t>1,94; 4,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,76</t>
+          <t>0,75; 2,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,42</t>
+          <t>0,04; 0,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,01</t>
+          <t>1,55; 3,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,22</t>
+          <t>0,42; 1,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,75</t>
+          <t>0,08; 0,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,27</t>
+          <t>4,32; 7,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,06</t>
+          <t>0,75; 2,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,43</t>
+          <t>0,08; 0,41</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,92; 4,38</t>
+          <t>2,88; 4,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,41</t>
+          <t>0,63; 1,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
